--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PurchaseOrder.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PurchaseOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{035DA958-DE8A-7546-A496-5C742B1A6E3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169AB32-DBB4-A446-A93D-30B56AC1BFFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20600" yWindow="440" windowWidth="15560" windowHeight="21160" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="15660" yWindow="440" windowWidth="20500" windowHeight="21160" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,13 +577,133 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -607,131 +727,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1056,7 @@
   <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="17"/>
@@ -1061,128 +1067,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -1214,83 +1220,83 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
     </row>
     <row r="7" spans="1:27" ht="18" thickBot="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
     </row>
     <row r="8" spans="1:27" ht="19.5" customHeight="1" thickTop="1">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="s">
         <v>5</v>
@@ -1301,29 +1307,29 @@
       <c r="S8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="58"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="73"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
         <v>7</v>
@@ -1334,29 +1340,29 @@
       <c r="S9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="74"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="10"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
         <v>8</v>
@@ -1367,29 +1373,29 @@
       <c r="S10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="74"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
         <v>9</v>
@@ -1400,29 +1406,29 @@
       <c r="S11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="74"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
         <v>10</v>
@@ -1433,29 +1439,29 @@
       <c r="S12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="74"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
         <v>11</v>
@@ -1466,33 +1472,33 @@
       <c r="S13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="74"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
         <v>12</v>
@@ -1503,14 +1509,14 @@
       <c r="S14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="60"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="74"/>
     </row>
     <row r="15" spans="1:27" ht="18" thickBot="1">
       <c r="A15" s="14" t="s">
@@ -1573,262 +1579,262 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="30" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30" t="s">
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30" t="s">
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30" t="s">
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="54"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="41"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="73"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="51"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="38"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="61" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="61" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="61" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="8"/>
@@ -1859,7 +1865,7 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="18">
       <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1871,28 +1877,28 @@
       <c r="G26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="H26" s="32"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+    </row>
+    <row r="27" spans="1:27" ht="18">
       <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
@@ -1904,26 +1910,26 @@
       <c r="G27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="8"/>
@@ -2124,18 +2130,18 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="56" t="s">
+      <c r="R34" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="8" t="s">
@@ -2198,35 +2204,35 @@
       <c r="AA36" s="8"/>
     </row>
     <row r="37" spans="1:27" ht="20">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="2"/>
@@ -2519,51 +2525,9 @@
       <c r="AA47" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="R34:AA34"/>
-    <mergeCell ref="A37:AA37"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C8:M13"/>
+  <mergeCells count="58">
+    <mergeCell ref="H26:AA26"/>
+    <mergeCell ref="H27:AA27"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A2:AA2"/>
@@ -2576,6 +2540,50 @@
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="W17:AA18"/>
     <mergeCell ref="R17:V18"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="C8:M13"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="R34:AA34"/>
+    <mergeCell ref="A37:AA37"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="R24:V24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PurchaseOrder.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/PurchaseOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanbaiKanri_1.3.8\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169AB32-DBB4-A446-A93D-30B56AC1BFFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66957E92-4DDA-4F6D-88F2-11E27235AF28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="440" windowWidth="20500" windowHeight="21160" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="15660" yWindow="444" windowWidth="20496" windowHeight="21156" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,51 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>レビガータ株式会社</t>
     <rPh sb="5" eb="9">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0200004 岩手県 盛岡市</t>
-    <rPh sb="8" eb="11">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>モリオカシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="0" eb="2">
-      <t>オオドオリ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンチョウメ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイウン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>telp. 019-600-0000 Fax. 019-600-0000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -224,12 +185,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +289,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +562,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +596,111 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,143 +718,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,6 +742,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E9558D-68D0-4FD7-A41D-072F4CF86213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15242"/>
+          <a:ext cx="1280160" cy="635392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,141 +1099,139 @@
   <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="3.1640625" style="1"/>
-    <col min="27" max="27" width="3.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="16384" width="3.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-    </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1219,308 +1260,308 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-    </row>
-    <row r="7" spans="1:27" ht="18" thickBot="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-    </row>
-    <row r="8" spans="1:27" ht="19.5" customHeight="1" thickTop="1">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+    </row>
+    <row r="8" spans="1:27" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="C8" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="73"/>
-    </row>
-    <row r="9" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="74"/>
-    </row>
-    <row r="10" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="66"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="74"/>
-    </row>
-    <row r="11" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="66"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="74"/>
-    </row>
-    <row r="12" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="66"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="74"/>
-    </row>
-    <row r="13" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="66"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="74"/>
-    </row>
-    <row r="14" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="66"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="C14" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="74"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="66"/>
+    </row>
+    <row r="15" spans="1:27" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -1549,7 +1590,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27" ht="18" thickTop="1">
+    <row r="16" spans="1:27" ht="16.8" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
@@ -1578,265 +1619,265 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="65" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="71" t="s">
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="70" t="s">
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70" t="s">
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="71"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A22" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A23" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A24" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="41"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="27"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="38"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="34" t="s">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1865,9 +1906,9 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="18">
+    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1875,32 +1916,32 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-    </row>
-    <row r="27" spans="1:27" ht="18">
+        <v>3</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+    </row>
+    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1908,30 +1949,30 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-    </row>
-    <row r="28" spans="1:27">
+        <v>3</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1960,7 +2001,7 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1978,7 +2019,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
@@ -1990,7 +2031,7 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2064,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2052,7 +2093,7 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2081,7 +2122,7 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2110,9 +2151,9 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2130,22 +2171,22 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="R34" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2174,7 +2215,7 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2203,38 +2244,38 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" ht="20">
-      <c r="A37" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-    </row>
-    <row r="38" spans="1:27">
+    <row r="37" spans="1:27" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A37" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2263,7 +2304,7 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2292,7 +2333,7 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2321,7 +2362,7 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2350,7 +2391,7 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2379,7 +2420,7 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2408,7 +2449,7 @@
       <c r="Z43" s="19"/>
       <c r="AA43" s="19"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2437,7 +2478,7 @@
       <c r="Z44" s="19"/>
       <c r="AA44" s="19"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2466,7 +2507,7 @@
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2495,7 +2536,7 @@
       <c r="Z46" s="19"/>
       <c r="AA46" s="19"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2526,6 +2567,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="R34:AA34"/>
+    <mergeCell ref="A37:AA37"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="C8:M13"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="H26:AA26"/>
     <mergeCell ref="H27:AA27"/>
     <mergeCell ref="A17:B18"/>
@@ -2542,51 +2625,10 @@
     <mergeCell ref="R17:V18"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="C8:M13"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="R34:AA34"/>
-    <mergeCell ref="A37:AA37"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="R24:V24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>